--- a/MTX-dataark.xlsx
+++ b/MTX-dataark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s174586_win_dtu_dk/Documents/Documents/DTU/6. semester/Bachelor/Version_2/Streamlit-MTX-treatment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_496DDA9FC55F384FE429649542DB163AAD55964F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03045007-F25C-E341-8870-D717D5EDC5F8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{26160738-D7FA-EC40-A400-2BEF7E68F653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3CA7D01-54B9-D141-A12C-0DD693F670CC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Navn</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Sygeplejerske_tid_Fjerde_Ekstra_dosis_calciumfolinat_t66</t>
+  </si>
+  <si>
+    <t>Se_MTX_t78</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -626,15 +628,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:CD1"/>
+  <dimension ref="B1:CE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:82" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:83" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,6 +879,9 @@
       </c>
       <c r="CD1" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/MTX-dataark.xlsx
+++ b/MTX-dataark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s174586_win_dtu_dk/Documents/Documents/DTU/6. semester/Bachelor/Version_2/Streamlit-MTX-treatment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikkelswartz/OneDrive - Danmarks Tekniske Universitet/Documents/DTU/6. semester/Bachelor/Version_2/Streamlit-MTX-treatment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{26160738-D7FA-EC40-A400-2BEF7E68F653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3CA7D01-54B9-D141-A12C-0DD693F670CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52725335-256A-B94C-91C0-0DE2B38A4C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Fritekst_Time 0</t>
   </si>
   <si>
-    <t>Durise_600ml_6timer</t>
-  </si>
-  <si>
     <t>Furosemid</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>Se_MTX_t78</t>
+  </si>
+  <si>
+    <t>Diurese_600ml_6timer</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="B1:CE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,196 +692,196 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
